--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st01.xlsx
@@ -3312,7 +3312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Whether "The General" decides to shake her hand or not depends entirely on her mood.
+    <t xml:space="preserve">Whether 'The General' decides to shake her hand or not depends entirely on her mood.
 </t>
   </si>
   <si>
@@ -3396,15 +3396,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  "Gummy, we went out. Won’t be back until evening. Please look after yourself."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  "Signed, Istina..."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  "...and Zima."
+    <t xml:space="preserve">[name="Gummy"]  'Gummy, we went out. Won’t be back until evening. Please look after yourself.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  'Signed, Istina...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  '...and Zima.'
 </t>
   </si>
   <si>
@@ -3696,7 +3696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  That means "Kay is not allowed in here." Got it?
+    <t xml:space="preserve">[name="Gummy"]  That means 'Kay is not allowed in here.' Got it?
 </t>
   </si>
   <si>
@@ -4188,7 +4188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Is this another one of your "habits"?
+    <t xml:space="preserve">[name="Dur-nar"]  Is this another one of your 'habits'?
 </t>
   </si>
   <si>
@@ -4292,7 +4292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She hangs her "shield" in the corner,
+    <t xml:space="preserve">She hangs her 'shield' in the corner,
 </t>
   </si>
   <si>
@@ -4316,7 +4316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Since coming to Rhodes Island, Gummy’s "habits" only bred more habits.
+    <t xml:space="preserve">Since coming to Rhodes Island, Gummy’s 'habits' only bred more habits.
 </t>
   </si>
   <si>
@@ -4328,7 +4328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She can do nothing but keep on being "Gummy."
+    <t xml:space="preserve">She can do nothing but keep on being 'Gummy.'
 </t>
   </si>
   <si>
@@ -4648,7 +4648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  "A few words." Eat up.
+    <t xml:space="preserve">[name="Zima"]  'A few words.' Eat up.
 </t>
   </si>
   <si>
@@ -5888,7 +5888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="듀나"]  (의료팀에 잠깐 가봐야겠다. 가비알 얼굴도 볼 겸.)
+    <t xml:space="preserve">[name="듀나"]  (의료부에 잠깐 가봐야겠다. 가비알 얼굴도 볼 겸.)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st01.xlsx
@@ -3316,7 +3316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Rhodes Island Dormitories - Istina and Gummy’s Room
+    <t xml:space="preserve">Rhodes Island Dormitories - Istina and Gummy's Room
 </t>
   </si>
   <si>
@@ -3324,7 +3324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (It’s morning.)
+    <t xml:space="preserve">[name="Gummy"]  (It's morning.)
 </t>
   </si>
   <si>
@@ -3332,11 +3332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (But she sure is taking her time today. Maybe she’s been working too hard?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  (But I’m gonna be late if I keep waiting for her. C’mon, Gummy, just get up already!)
+    <t xml:space="preserve">[name="Gummy"]  (But she sure is taking her time today. Maybe she's been working too hard?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  (But I'm gonna be late if I keep waiting for her. C'mon, Gummy, just get up already!)
 </t>
   </si>
   <si>
@@ -3348,11 +3348,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I’m up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  It’s so dark...
+    <t xml:space="preserve">[name="Gummy"]  I'm up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  It's so dark...
 </t>
   </si>
   <si>
@@ -3376,7 +3376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Yeah, she’s not here.
+    <t xml:space="preserve">[name="Gummy"]  Yeah, she's not here.
 </t>
   </si>
   <si>
@@ -3392,11 +3392,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  What’s this...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  'Gummy, we went out. Won’t be back until evening. Please look after yourself.'
+    <t xml:space="preserve">[name="Gummy"]  What's this...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  'Gummy, we went out. Won't be back until evening. Please look after yourself.'
 </t>
   </si>
   <si>
@@ -3412,7 +3412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  That means Zima’s already up too.
+    <t xml:space="preserve">[name="Gummy"]  That means Zima's already up too.
 </t>
   </si>
   <si>
@@ -3420,7 +3420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Oops, I better hurry up and report in or I’m gonna be late.
+    <t xml:space="preserve">[name="Gummy"]  Oops, I better hurry up and report in or I'm gonna be late.
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Right, that’s everything.
+    <t xml:space="preserve">[name="Gummy"]  Right, that's everything.
 </t>
   </si>
   <si>
@@ -3444,11 +3444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I’m kinda hungry...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I left in a hurry this morning and didn’t have time to fill up my tummy.
+    <t xml:space="preserve">[name="Gummy"]  I'm kinda hungry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I left in a hurry this morning and didn't have time to fill up my tummy.
 </t>
   </si>
   <si>
@@ -3468,7 +3468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Gotta do a shchi next? Okay, I’ll have it right out!
+    <t xml:space="preserve">[name="Gummy"]  Gotta do a shchi next? Okay, I'll have it right out!
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Food’s ready! Please take it to the dining area!
+    <t xml:space="preserve">[name="Gummy"]  Food's ready! Please take it to the dining area!
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Just need someone to take this order, then I crank out the pelmeni and I’m good to go.
+    <t xml:space="preserve">[name="Gummy"]  Just need someone to take this order, then I crank out the pelmeni and I'm good to go.
 </t>
   </si>
   <si>
@@ -3500,7 +3500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I got this. It’s way lighter than my shield.
+    <t xml:space="preserve">[name="Gummy"]  I got this. It's way lighter than my shield.
 </t>
   </si>
   <si>
@@ -3520,15 +3520,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Why is everyone in such a hurry today? I turn my head for a second and she’s gone...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Oh well, guess I’ll just ask where to put it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  It’s gotta go around here somewhere. The lady at the cash register, that’s... Gitano, right?
+    <t xml:space="preserve">[name="Gummy"]  Why is everyone in such a hurry today? I turn my head for a second and she's gone...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Oh well, guess I'll just ask where to put it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  It's gotta go around here somewhere. The lady at the cash register, that's... Gitano, right?
 </t>
   </si>
   <si>
@@ -3544,7 +3544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Just one thing. Could you tell me where to put the shchi? It’s getting cold!
+    <t xml:space="preserve">[name="Gummy"]  Just one thing. Could you tell me where to put the shchi? It's getting cold!
 </t>
   </si>
   <si>
@@ -3560,11 +3560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gitano"]  Are you sure you don’t need any help, Little Cub?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I’m perfectly fine! See you later, Gitano!
+    <t xml:space="preserve">[name="Gitano"]  Are you sure you don't need any help, Little Cub?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I'm perfectly fine! See you later, Gitano!
 </t>
   </si>
   <si>
@@ -3572,7 +3572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spot"]  Forget it. You couldn’t lift it anyway.
+    <t xml:space="preserve">[name="Spot"]  Forget it. You couldn't lift it anyway.
 </t>
   </si>
   <si>
@@ -3592,7 +3592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Courier"]  Please be careful. It’s hot.
+    <t xml:space="preserve">[name="Courier"]  Please be careful. It's hot.
 </t>
   </si>
   <si>
@@ -3608,7 +3608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  You’re welcome~
+    <t xml:space="preserve">[name="Gummy"]  You're welcome~
 </t>
   </si>
   <si>
@@ -3616,7 +3616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Courier"]  Phew! That’s all for now.
+    <t xml:space="preserve">[name="Courier"]  Phew! That's all for now.
 </t>
   </si>
   <si>
@@ -3636,7 +3636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Courier"]  You’ve really outdone yourself, Gummy. C’mere, I have a cookie for you. You must be hungry, right?
+    <t xml:space="preserve">[name="Courier"]  You've really outdone yourself, Gummy. C'mere, I have a cookie for you. You must be hungry, right?
 </t>
   </si>
   <si>
@@ -3644,7 +3644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Courier"]  It’s my pleasure. Make sure to have a proper meal after this, all right?
+    <t xml:space="preserve">[name="Courier"]  It's my pleasure. Make sure to have a proper meal after this, all right?
 </t>
   </si>
   <si>
@@ -3664,7 +3664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (Just hold out a bit longer... It’s almost time to eat!)
+    <t xml:space="preserve">[name="Gummy"]  (Just hold out a bit longer... It's almost time to eat!)
 </t>
   </si>
   <si>
@@ -3672,15 +3672,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Wooaahh! Kay, you can’t go in there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  I can’t?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  You can’t! Don’t you see the sign on the door?
+    <t xml:space="preserve">[name="Gummy"]  Wooaahh! Kay, you can't go in there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  I can't?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  You can't! Don't you see the sign on the door?
 </t>
   </si>
   <si>
@@ -3712,19 +3712,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  If you’re hungry, you can just get in line and order something to eat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Y- You’re not allowed in there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  But I’m hungry!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Fine, fine! I’ll think of something!!
+    <t xml:space="preserve">[name="Gummy"]  If you're hungry, you can just get in line and order something to eat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Y- You're not allowed in there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  But I'm hungry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Fine, fine! I'll think of something!!
 </t>
   </si>
   <si>
@@ -3756,7 +3756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  You’re welcome...
+    <t xml:space="preserve">[name="Gummy"]  You're welcome...
 </t>
   </si>
   <si>
@@ -3768,7 +3768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  There’s... there’s still... one more to go...
+    <t xml:space="preserve">[name="Gummy"]  There's... there's still... one more to go...
 </t>
   </si>
   <si>
@@ -3776,23 +3776,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Why’s the ladle so heavy......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I can’t even scoop up the food......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I can’t do this anymore. I have to eat something!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gummy has a habit. When she’s famished, something takes hold of her,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And she can’t resist her urge to eat...
+    <t xml:space="preserve">[name="Gummy"]  Why's the ladle so heavy......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I can't even scoop up the food......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I can't do this anymore. I have to eat something!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gummy has a habit. When she's famished, something takes hold of her,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And she can't resist her urge to eat...
 </t>
   </si>
   <si>
@@ -3800,11 +3800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  What’s this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  The hell ya doin’, Gummy?
+    <t xml:space="preserve">[name="Gummy"]  What's this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  The hell ya doin', Gummy?
 </t>
   </si>
   <si>
@@ -3852,15 +3852,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  C-calm down, Gummy, the food’s not going anywhere. And we got training in the afternoon, y’know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  (She doesn’t leave a single scrap on her plate...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  (...and doesn’t hesitate to reach for seconds.)
+    <t xml:space="preserve">[name="Dur-nar"]  C-calm down, Gummy, the food's not going anywhere. And we got training in the afternoon, y'know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  (She doesn't leave a single scrap on her plate...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  (...and doesn't hesitate to reach for seconds.)
 </t>
   </si>
   <si>
@@ -3868,15 +3868,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (In no time, she’s gobbled up an entire table full of food.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Guess you’re not feeling talkative...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  I’ll get back to you later.
+    <t xml:space="preserve">[name="Gummy"]  (In no time, she's gobbled up an entire table full of food.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Guess you're not feeling talkative...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  I'll get back to you later.
 </t>
   </si>
   <si>
@@ -3884,7 +3884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Instructor, don’t you want to eat?
+    <t xml:space="preserve">[name="Gummy"]  Instructor, don't you want to eat?
 </t>
   </si>
   <si>
@@ -3892,23 +3892,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I’m so sorry, Instructor!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Don’t worry about it, I can always get more.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  By the way, how’d you end up so hungry? You skip breakfast or something?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I overslept this morning and didn’t have time to eat, so...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Y’know, you might just be that type of girl. With a bottomless pit for a stomach.
+    <t xml:space="preserve">[name="Gummy"]  I'm so sorry, Instructor!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Don't worry about it, I can always get more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  By the way, how'd you end up so hungry? You skip breakfast or something?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I overslept this morning and didn't have time to eat, so...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Y'know, you might just be that type of girl. With a bottomless pit for a stomach.
 </t>
   </si>
   <si>
@@ -3920,11 +3920,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Kay? She’s charging the kitchen again?! I better—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Relax, we got someone keeping an eye on her. Plus, they laid out some goodies near the door just in case she gets in. She won’t make it to anything important.
+    <t xml:space="preserve">[name="Gummy"]  Kay? She's charging the kitchen again?! I better—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Relax, we got someone keeping an eye on her. Plus, they laid out some goodies near the door just in case she gets in. She won't make it to anything important.
 </t>
   </si>
   <si>
@@ -3936,23 +3936,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  See, she’s done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  If we sealed that door, it’d hurt her feelings. Letting her in every now and then lets her feel like she won. And it doesn’t cost us much. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Um, so who’s in charge of keeping an eye on her?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Gitano’s on duty today.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Good choice. She’s always got it together.
+    <t xml:space="preserve">[name="Dur-nar"]  See, she's done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  If we sealed that door, it'd hurt her feelings. Letting her in every now and then lets her feel like she won. And it doesn't cost us much. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Um, so who's in charge of keeping an eye on her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Gitano's on duty today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Good choice. She's always got it together.
 </t>
   </si>
   <si>
@@ -3968,15 +3968,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  I’ve watched you in combat, and it’s the same in the kitchen. You get two good strokes in and then you have to stop.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  I guess... it’s a habit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Huh—? Well, that’s a bad habit if I ever saw one. Can we fix it?
+    <t xml:space="preserve">[name="Dur-nar"]  I've watched you in combat, and it's the same in the kitchen. You get two good strokes in and then you have to stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  I guess... it's a habit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Huh—? Well, that's a bad habit if I ever saw one. Can we fix it?
 </t>
   </si>
   <si>
@@ -3984,7 +3984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  But if we can cure you, I’m sure you’ve got the next Rhodes Island Chopping Competition in the bag.
+    <t xml:space="preserve">[name="Dur-nar"]  But if we can cure you, I'm sure you've got the next Rhodes Island Chopping Competition in the bag.
 </t>
   </si>
   <si>
@@ -3992,15 +3992,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Okay... I’ll try...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Good. We’ll get to it after defender practice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  We won’t know if we can fix that habit until we try.
+    <t xml:space="preserve">[name="Gummy"]  Okay... I'll try...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Good. We'll get to it after defender practice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  We won't know if we can fix that habit until we try.
 </t>
   </si>
   <si>
@@ -4020,7 +4020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Last round of the day. Let’s power through.
+    <t xml:space="preserve">[name="Dur-nar"]  Last round of the day. Let's power through.
 </t>
   </si>
   <si>
@@ -4044,7 +4044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Okay, we’re done. Go cool off.
+    <t xml:space="preserve">[name="Dur-nar"]  Okay, we're done. Go cool off.
 </t>
   </si>
   <si>
@@ -4056,7 +4056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Yes, ma’am!
+    <t xml:space="preserve">[name="Gummy"]  Yes, ma'am!
 </t>
   </si>
   <si>
@@ -4068,7 +4068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Now relax. That’s gonna be an important part of your rehab.
+    <t xml:space="preserve">[name="Dur-nar"]  Now relax. That's gonna be an important part of your rehab.
 </t>
   </si>
   <si>
@@ -4080,7 +4080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  I know you’re tired from afternoon training, but it’s actually the perfect time to work on this.
+    <t xml:space="preserve">[name="Dur-nar"]  I know you're tired from afternoon training, but it's actually the perfect time to work on this.
 </t>
   </si>
   <si>
@@ -4092,7 +4092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Great. Now gimme whatever’s left in the tank.
+    <t xml:space="preserve">[name="Dur-nar"]  Great. Now gimme whatever's left in the tank.
 </t>
   </si>
   <si>
@@ -4120,7 +4120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  (If it’s a conditioned reflex, that should have shaken out some more swings.)
+    <t xml:space="preserve">[name="Dur-nar"]  (If it's a conditioned reflex, that should have shaken out some more swings.)
 </t>
   </si>
   <si>
@@ -4136,7 +4136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I can’t do it!
+    <t xml:space="preserve">[name="Gummy"]  I can't do it!
 </t>
   </si>
   <si>
@@ -4144,11 +4144,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I can’t!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  That’s an order!
+    <t xml:space="preserve">[name="Gummy"]  I can't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  That's an order!
 </t>
   </si>
   <si>
@@ -4168,7 +4168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She’ll chop straight through the cutting board, right into the counter itself.
+    <t xml:space="preserve">She'll chop straight through the cutting board, right into the counter itself.
 </t>
   </si>
   <si>
@@ -4184,7 +4184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  I’m fine, I’m fine. It’s just been a long time since I took a hit like that.
+    <t xml:space="preserve">[name="Dur-nar"]  I'm fine, I'm fine. It's just been a long time since I took a hit like that.
 </t>
   </si>
   <si>
@@ -4196,7 +4196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Relax. I told you, I’m fine.
+    <t xml:space="preserve">[name="Dur-nar"]  Relax. I told you, I'm fine.
 </t>
   </si>
   <si>
@@ -4212,15 +4212,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  And I’m guessing that takes a fourth swing off the table.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  If we were in the kitchen just now, you’d’ve chopped that cutting board into a nice, clean pair.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Here I thought we just had to push you over the edge... Turns out there’s something else going on here.
+    <t xml:space="preserve">[name="Dur-nar"]  And I'm guessing that takes a fourth swing off the table.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  If we were in the kitchen just now, you'd've chopped that cutting board into a nice, clean pair.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Here I thought we just had to push you over the edge... Turns out there's something else going on here.
 </t>
   </si>
   <si>
@@ -4228,15 +4228,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  It’s... it’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  It’s my fault for being a lousy student.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  Let’s call it for today. You go home and rest up. Give me some time to noodle on this.
+    <t xml:space="preserve">[name="Gummy"]  It's... it's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  It's my fault for being a lousy student.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  Let's call it for today. You go home and rest up. Give me some time to noodle on this.
 </t>
   </si>
   <si>
@@ -4260,11 +4260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  (I can’t feel my arm.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dur-nar"]  (It’s totally numb.)
+    <t xml:space="preserve">[name="Dur-nar"]  (I can't feel my arm.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dur-nar"]  (It's totally numb.)
 </t>
   </si>
   <si>
@@ -4276,11 +4276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dur-nar"]  (I’ll grab her something to eat on the way.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodes Island Dormitories - Zima, Istina, and Gummy’s Quarters
+    <t xml:space="preserve">[name="Dur-nar"]  (I'll grab her something to eat on the way.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes Island Dormitories - Zima, Istina, and Gummy's Quarters
 </t>
   </si>
   <si>
@@ -4316,7 +4316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Since coming to Rhodes Island, Gummy’s 'habits' only bred more habits.
+    <t xml:space="preserve">Since coming to Rhodes Island, Gummy's 'habits' only bred more habits.
 </t>
   </si>
   <si>
@@ -4324,7 +4324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But she can’t change.
+    <t xml:space="preserve">But she can't change.
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When up somewhere high, she keeps far away from the edge, even if there’s a guardrail. 
+    <t xml:space="preserve">When up somewhere high, she keeps far away from the edge, even if there's a guardrail. 
 </t>
   </si>
   <si>
@@ -4356,7 +4356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When she’s famished, she has to fight the urge to devour the nearest object. Should she fail...
+    <t xml:space="preserve">When she's famished, she has to fight the urge to devour the nearest object. Should she fail...
 </t>
   </si>
   <si>
@@ -4368,7 +4368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Oh, Gummy, you’re back? Why didn’t you turn on the lights?
+    <t xml:space="preserve">[name="Zima"]  Oh, Gummy, you're back? Why didn't you turn on the lights?
 </t>
   </si>
   <si>
@@ -4436,7 +4436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Don’t move.
+    <t xml:space="preserve">[name="Zima"]  Don't move.
 </t>
   </si>
   <si>
@@ -4480,23 +4480,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Okay. What’s so special about today anyway?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  It’s been exactly one year since we came to Rhodes Island. Zima even woke up early for the occasion. If you believe it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Phew— I’m beat. I’m gonna lay down for a bit. Call me when Leto gets here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Oh no you’re not. There’s too much to be done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Nah. I’m tired.
+    <t xml:space="preserve">[name="Gummy"]  Okay. What's so special about today anyway?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  It's been exactly one year since we came to Rhodes Island. Zima even woke up early for the occasion. If you believe it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Phew— I'm beat. I'm gonna lay down for a bit. Call me when Leto gets here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Oh no you're not. There's too much to be done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Nah. I'm tired.
 </t>
   </si>
   <si>
@@ -4508,7 +4508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’ll go prepare the refreshments. You’re responsible for getting Zima up.
+    <t xml:space="preserve">[name="Istina"]  I'll go prepare the refreshments. You're responsible for getting Zima up.
 </t>
   </si>
   <si>
@@ -4528,7 +4528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Spare me the schmaltz. I’m sleepy.
+    <t xml:space="preserve">[name="Zima"]  Spare me the schmaltz. I'm sleepy.
 </t>
   </si>
   <si>
@@ -4544,11 +4544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Fine! I’m up! I’m up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Job’s done, Istina!
+    <t xml:space="preserve">[name="Zima"]  Fine! I'm up! I'm up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Job's done, Istina!
 </t>
   </si>
   <si>
@@ -4564,7 +4564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Because you’re our leader! Hehe.
+    <t xml:space="preserve">[name="Gummy"]  Because you're our leader! Hehe.
 </t>
   </si>
   <si>
@@ -4572,7 +4572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  It’s open.
+    <t xml:space="preserve">[name="Zima"]  It's open.
 </t>
   </si>
   <si>
@@ -4580,11 +4580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  We’ll celebrate once everything’s done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Can’t believe you remembered.
+    <t xml:space="preserve">[name="Zima"]  We'll celebrate once everything's done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Can't believe you remembered.
 </t>
   </si>
   <si>
@@ -4596,7 +4596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  That stuff isn’t cheap.
+    <t xml:space="preserve">[name="Leto"]  That stuff isn't cheap.
 </t>
   </si>
   <si>
@@ -4608,7 +4608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  What’re you standing around for? Get busy.
+    <t xml:space="preserve">[name="Zima"]  What're you standing around for? Get busy.
 </t>
   </si>
   <si>
@@ -4628,11 +4628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When she’s happy, she laughs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s a laugh from the very depths of her soul.
+    <t xml:space="preserve">When she's happy, she laughs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a laugh from the very depths of her soul.
 </t>
   </si>
   <si>
@@ -4668,7 +4668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (It’s been a long time since we all got together.)
+    <t xml:space="preserve">[name="Gummy"]  (It's been a long time since we all got together.)
 </t>
   </si>
   <si>
@@ -4704,7 +4704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Vulcan taught me how to make it. It’s fresh outta the oven.
+    <t xml:space="preserve">[name="Ceobe"]  Vulcan taught me how to make it. It's fresh outta the oven.
 </t>
   </si>
   <si>
@@ -4724,15 +4724,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  She’s gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Nichego sebe, that’s one hell of a cookie.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  A cookie’s a cookie.
+    <t xml:space="preserve">[name="Gummy"]  She's gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Nichego sebe, that's one hell of a cookie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  A cookie's a cookie.
 </t>
   </si>
   <si>
@@ -4740,7 +4740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (I’m eating well tonight.)
+    <t xml:space="preserve">[name="Gummy"]  (I'm eating well tonight.)
 </t>
   </si>
   <si>
@@ -4748,7 +4748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Phew. That was great. But now it’s bedtime.
+    <t xml:space="preserve">[name="Gummy"]  Phew. That was great. But now it's bedtime.
 </t>
   </si>
   <si>
@@ -4756,7 +4756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Huh? It’s not turning on?
+    <t xml:space="preserve">[name="Gummy"]  Huh? It's not turning on?
 </t>
   </si>
   <si>
@@ -4764,7 +4764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Now that I think of it, it wasn’t on this morning either.
+    <t xml:space="preserve">[name="Gummy"]  Now that I think of it, it wasn't on this morning either.
 </t>
   </si>
   <si>
@@ -4784,7 +4784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  What’s up, Istina?
+    <t xml:space="preserve">[name="Gummy"]  What's up, Istina?
 </t>
   </si>
   <si>
@@ -4808,7 +4808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Can the three of us really fit in Gummy’s bed?
+    <t xml:space="preserve">[name="Zima"]  Can the three of us really fit in Gummy's bed?
 </t>
   </si>
   <si>
@@ -4816,7 +4816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Guess we’re making a Gummy bear sandwich.
+    <t xml:space="preserve">[name="Zima"]  Guess we're making a Gummy bear sandwich.
 </t>
   </si>
   <si>
@@ -4824,11 +4824,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  All right. Just tell me if it gets too hot and stuffy. I’ll go back to my room.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I’m turning out the lights. Good night.
+    <t xml:space="preserve">[name="Zima"]  All right. Just tell me if it gets too hot and stuffy. I'll go back to my room.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I'm turning out the lights. Good night.
 </t>
   </si>
   <si>
@@ -4844,7 +4844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I can’t even remember. I don’t even want to remember.
+    <t xml:space="preserve">[name="Istina"]  I can't even remember. I don't even want to remember.
 </t>
   </si>
   <si>
@@ -4872,7 +4872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Guess I’m the only one who doesn’t pass right out.
+    <t xml:space="preserve">[name="Zima"]  Guess I'm the only one who doesn't pass right out.
 </t>
   </si>
   <si>
@@ -4892,7 +4892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  (Zima’s so cute.)
+    <t xml:space="preserve">[name="Gummy"]  (Zima's so cute.)
 </t>
   </si>
   <si>
@@ -4900,7 +4900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You know the Ursus Student Self-government Group?
+    <t xml:space="preserve">You know the Ursus Student Self-Governing Group?
 </t>
   </si>
   <si>
@@ -4908,7 +4908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">They’re the habit Gummy just can’t quit.
+    <t xml:space="preserve">They're the habit Gummy just can't quit.
 </t>
   </si>
   <si>
